--- a/static/data/sodan.xlsx
+++ b/static/data/sodan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file.kobe.local\top\02_作業文書\01_組織\平成31年度\01_市長室\03_広報戦略部\01_広報課\04_HP\コロナ\HP作図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file.kobe.local\top\02_作業文書\01_局室区\01_市長室\03_広報戦略部\01_広報課\04_HP\コロナ\HP作図\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$110</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$120</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E109" sqref="E109"/>
+      <selection pane="bottomRight" activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2350,8 +2350,195 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A109" s="3"/>
-      <c r="B109" s="5" t="s">
+      <c r="A109" s="3">
+        <v>43964</v>
+      </c>
+      <c r="B109" s="7">
+        <v>297</v>
+      </c>
+      <c r="C109" s="7">
+        <v>36845</v>
+      </c>
+      <c r="D109" s="8">
+        <v>51</v>
+      </c>
+      <c r="E109" s="8">
+        <v>7488</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110" s="3">
+        <v>43965</v>
+      </c>
+      <c r="B110" s="7">
+        <v>229</v>
+      </c>
+      <c r="C110" s="7">
+        <v>37074</v>
+      </c>
+      <c r="D110" s="8">
+        <v>42</v>
+      </c>
+      <c r="E110" s="8">
+        <v>7530</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111" s="3">
+        <v>43966</v>
+      </c>
+      <c r="B111" s="7">
+        <v>216</v>
+      </c>
+      <c r="C111" s="7">
+        <v>37290</v>
+      </c>
+      <c r="D111" s="8">
+        <v>54</v>
+      </c>
+      <c r="E111" s="8">
+        <v>7584</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A112" s="3">
+        <v>43967</v>
+      </c>
+      <c r="B112" s="7">
+        <v>191</v>
+      </c>
+      <c r="C112" s="7">
+        <v>37481</v>
+      </c>
+      <c r="D112" s="8">
+        <v>0</v>
+      </c>
+      <c r="E112" s="8">
+        <v>7584</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A113" s="3">
+        <v>43968</v>
+      </c>
+      <c r="B113" s="7">
+        <v>197</v>
+      </c>
+      <c r="C113" s="7">
+        <v>37678</v>
+      </c>
+      <c r="D113" s="8">
+        <v>0</v>
+      </c>
+      <c r="E113" s="8">
+        <v>7584</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A114" s="3">
+        <v>43969</v>
+      </c>
+      <c r="B114" s="7">
+        <v>287</v>
+      </c>
+      <c r="C114" s="7">
+        <v>37965</v>
+      </c>
+      <c r="D114" s="8">
+        <v>58</v>
+      </c>
+      <c r="E114" s="8">
+        <v>7642</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A115" s="3">
+        <v>43970</v>
+      </c>
+      <c r="B115" s="7">
+        <v>206</v>
+      </c>
+      <c r="C115" s="7">
+        <v>38171</v>
+      </c>
+      <c r="D115" s="8">
+        <v>40</v>
+      </c>
+      <c r="E115" s="8">
+        <v>7682</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A116" s="3">
+        <v>43971</v>
+      </c>
+      <c r="B116" s="7">
+        <v>175</v>
+      </c>
+      <c r="C116" s="7">
+        <v>38346</v>
+      </c>
+      <c r="D116" s="8">
+        <v>46</v>
+      </c>
+      <c r="E116" s="8">
+        <v>7728</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A117" s="3">
+        <v>43972</v>
+      </c>
+      <c r="B117" s="7">
+        <v>119</v>
+      </c>
+      <c r="C117" s="7">
+        <v>38465</v>
+      </c>
+      <c r="D117" s="8">
+        <v>36</v>
+      </c>
+      <c r="E117" s="8">
+        <v>7764</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A118" s="3">
+        <v>43973</v>
+      </c>
+      <c r="B118" s="7">
+        <v>136</v>
+      </c>
+      <c r="C118" s="7">
+        <v>38601</v>
+      </c>
+      <c r="D118" s="8">
+        <v>37</v>
+      </c>
+      <c r="E118" s="8">
+        <v>7801</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A119" s="3">
+        <v>43974</v>
+      </c>
+      <c r="B119" s="7">
+        <v>134</v>
+      </c>
+      <c r="C119" s="7">
+        <v>38735</v>
+      </c>
+      <c r="D119" s="8">
+        <v>0</v>
+      </c>
+      <c r="E119" s="8">
+        <v>7801</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A120" s="3"/>
+      <c r="B120" s="5" t="s">
         <v>4</v>
       </c>
     </row>
